--- a/Test 1.xlsx
+++ b/Test 1.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -503,7 +503,7 @@
         <v>0.60746527777777803</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>16</v>
